--- a/biology/Zoologie/Baeotis_hisbon/Baeotis_hisbon.xlsx
+++ b/biology/Zoologie/Baeotis_hisbon/Baeotis_hisbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeotis hisbon est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Baeotis.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baeotis hisbon a été décrit par Pieter Cramer en 1775 sous le nom de Papilio hisbon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotis hisbon a été décrit par Pieter Cramer en 1775 sous le nom de Papilio hisbon.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Baeotis hisbon est de couleur noire avec une ornementation de bandes blanches, une basale, une large médiane et une troisième laissant une large bande noire marginale. Chez Baeotis hisbon forme simblina Stichel, 1929, les bandes sont jaune pâle et plus larges lui donnant une dominante jaune pâle.
 Le revers est identique.
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,13 +618,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baeotis hisbon est présent en Amérique du Sud sous forme de deux petits isolats, l'un au Brésil autour de Rio de Janeiro et l'autre en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baeotis hisbon est présent en Amérique du Sud sous forme de deux petits isolats, l'un au Brésil autour de Rio de Janeiro et l'autre en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baeotis_hisbon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotis_hisbon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baeotis_hisbon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baeotis_hisbon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
